--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cadm1-Cadm3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cadm1-Cadm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.08016956906735</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="H2">
-        <v>1.08016956906735</v>
+        <v>3.734549</v>
       </c>
       <c r="I2">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="J2">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.54359313463895</v>
+        <v>7.998339000000001</v>
       </c>
       <c r="N2">
-        <v>7.54359313463895</v>
+        <v>23.995017</v>
       </c>
       <c r="O2">
-        <v>0.6957261126655834</v>
+        <v>0.6786582098098016</v>
       </c>
       <c r="P2">
-        <v>0.6957261126655834</v>
+        <v>0.6786582098098015</v>
       </c>
       <c r="Q2">
-        <v>8.148359745462376</v>
+        <v>9.956729638037</v>
       </c>
       <c r="R2">
-        <v>8.148359745462376</v>
+        <v>89.61056674233301</v>
       </c>
       <c r="S2">
-        <v>0.1099645183791476</v>
+        <v>0.06310317296982794</v>
       </c>
       <c r="T2">
-        <v>0.1099645183791476</v>
+        <v>0.06310317296982793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.08016956906735</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="H3">
-        <v>1.08016956906735</v>
+        <v>3.734549</v>
       </c>
       <c r="I3">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="J3">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.42055881350906</v>
+        <v>2.676334666666667</v>
       </c>
       <c r="N3">
-        <v>2.42055881350906</v>
+        <v>8.029004</v>
       </c>
       <c r="O3">
-        <v>0.2232418880159656</v>
+        <v>0.2270867105947763</v>
       </c>
       <c r="P3">
-        <v>0.2232418880159656</v>
+        <v>0.2270867105947762</v>
       </c>
       <c r="Q3">
-        <v>2.614613970490257</v>
+        <v>3.331634317688445</v>
       </c>
       <c r="R3">
-        <v>2.614613970490257</v>
+        <v>29.984708859196</v>
       </c>
       <c r="S3">
-        <v>0.03528498679411671</v>
+        <v>0.02111503518365669</v>
       </c>
       <c r="T3">
-        <v>0.03528498679411671</v>
+        <v>0.02111503518365668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.08016956906735</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="H4">
-        <v>1.08016956906735</v>
+        <v>3.734549</v>
       </c>
       <c r="I4">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="J4">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.878610738646454</v>
+        <v>0.06654933333333334</v>
       </c>
       <c r="N4">
-        <v>0.878610738646454</v>
+        <v>0.199648</v>
       </c>
       <c r="O4">
-        <v>0.0810319993184509</v>
+        <v>0.005646703824886112</v>
       </c>
       <c r="P4">
-        <v>0.0810319993184509</v>
+        <v>0.00564670382488611</v>
       </c>
       <c r="Q4">
-        <v>0.9490485829416864</v>
+        <v>0.08284391541688889</v>
       </c>
       <c r="R4">
-        <v>0.9490485829416864</v>
+        <v>0.745595238752</v>
       </c>
       <c r="S4">
-        <v>0.01280769057842734</v>
+        <v>0.0005250432736547012</v>
       </c>
       <c r="T4">
-        <v>0.01280769057842734</v>
+        <v>0.0005250432736547011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.03129904771186</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="H5">
-        <v>4.03129904771186</v>
+        <v>3.734549</v>
       </c>
       <c r="I5">
-        <v>0.5898849967306132</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="J5">
-        <v>0.5898849967306132</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.54359313463895</v>
+        <v>1.044295666666667</v>
       </c>
       <c r="N5">
-        <v>7.54359313463895</v>
+        <v>3.132887</v>
       </c>
       <c r="O5">
-        <v>0.6957261126655834</v>
+        <v>0.08860837577053601</v>
       </c>
       <c r="P5">
-        <v>0.6957261126655834</v>
+        <v>0.088608375770536</v>
       </c>
       <c r="Q5">
-        <v>30.41047981999573</v>
+        <v>1.299991112551444</v>
       </c>
       <c r="R5">
-        <v>30.41047981999573</v>
+        <v>11.699920012963</v>
       </c>
       <c r="S5">
-        <v>0.4103983956951399</v>
+        <v>0.008239006884467942</v>
       </c>
       <c r="T5">
-        <v>0.4103983956951399</v>
+        <v>0.00823900688446794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.03129904771186</v>
+        <v>4.100633666666666</v>
       </c>
       <c r="H6">
-        <v>4.03129904771186</v>
+        <v>12.301901</v>
       </c>
       <c r="I6">
-        <v>0.5898849967306132</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="J6">
-        <v>0.5898849967306132</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42055881350906</v>
+        <v>7.998339000000001</v>
       </c>
       <c r="N6">
-        <v>2.42055881350906</v>
+        <v>23.995017</v>
       </c>
       <c r="O6">
-        <v>0.2232418880159656</v>
+        <v>0.6786582098098016</v>
       </c>
       <c r="P6">
-        <v>0.2232418880159656</v>
+        <v>0.6786582098098015</v>
       </c>
       <c r="Q6">
-        <v>9.757996439829622</v>
+        <v>32.798258180813</v>
       </c>
       <c r="R6">
-        <v>9.757996439829622</v>
+        <v>295.184323627317</v>
       </c>
       <c r="S6">
-        <v>0.1316870403824338</v>
+        <v>0.2078668633510229</v>
       </c>
       <c r="T6">
-        <v>0.1316870403824338</v>
+        <v>0.2078668633510228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.03129904771186</v>
+        <v>4.100633666666666</v>
       </c>
       <c r="H7">
-        <v>4.03129904771186</v>
+        <v>12.301901</v>
       </c>
       <c r="I7">
-        <v>0.5898849967306132</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="J7">
-        <v>0.5898849967306132</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.878610738646454</v>
+        <v>2.676334666666667</v>
       </c>
       <c r="N7">
-        <v>0.878610738646454</v>
+        <v>8.029004</v>
       </c>
       <c r="O7">
-        <v>0.0810319993184509</v>
+        <v>0.2270867105947763</v>
       </c>
       <c r="P7">
-        <v>0.0810319993184509</v>
+        <v>0.2270867105947762</v>
       </c>
       <c r="Q7">
-        <v>3.541942634014864</v>
+        <v>10.97466803740044</v>
       </c>
       <c r="R7">
-        <v>3.541942634014864</v>
+        <v>98.77201233660399</v>
       </c>
       <c r="S7">
-        <v>0.04779956065303946</v>
+        <v>0.06955460282911306</v>
       </c>
       <c r="T7">
-        <v>0.04779956065303946</v>
+        <v>0.06955460282911305</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.72257373055118</v>
+        <v>4.100633666666666</v>
       </c>
       <c r="H8">
-        <v>1.72257373055118</v>
+        <v>12.301901</v>
       </c>
       <c r="I8">
-        <v>0.252057807517695</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="J8">
-        <v>0.252057807517695</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>7.54359313463895</v>
+        <v>0.06654933333333334</v>
       </c>
       <c r="N8">
-        <v>7.54359313463895</v>
+        <v>0.199648</v>
       </c>
       <c r="O8">
-        <v>0.6957261126655834</v>
+        <v>0.005646703824886112</v>
       </c>
       <c r="P8">
-        <v>0.6957261126655834</v>
+        <v>0.00564670382488611</v>
       </c>
       <c r="Q8">
-        <v>12.99439536769528</v>
+        <v>0.2728944367608889</v>
       </c>
       <c r="R8">
-        <v>12.99439536769528</v>
+        <v>2.456049930848</v>
       </c>
       <c r="S8">
-        <v>0.1753631985912958</v>
+        <v>0.001729534241809665</v>
       </c>
       <c r="T8">
-        <v>0.1753631985912958</v>
+        <v>0.001729534241809664</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.72257373055118</v>
+        <v>4.100633666666666</v>
       </c>
       <c r="H9">
-        <v>1.72257373055118</v>
+        <v>12.301901</v>
       </c>
       <c r="I9">
-        <v>0.252057807517695</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="J9">
-        <v>0.252057807517695</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.42055881350906</v>
+        <v>1.044295666666667</v>
       </c>
       <c r="N9">
-        <v>2.42055881350906</v>
+        <v>3.132887</v>
       </c>
       <c r="O9">
-        <v>0.2232418880159656</v>
+        <v>0.08860837577053601</v>
       </c>
       <c r="P9">
-        <v>0.2232418880159656</v>
+        <v>0.088608375770536</v>
       </c>
       <c r="Q9">
-        <v>4.169591025404839</v>
+        <v>4.282273968687443</v>
       </c>
       <c r="R9">
-        <v>4.169591025404839</v>
+        <v>38.54046571818699</v>
       </c>
       <c r="S9">
-        <v>0.05626986083941506</v>
+        <v>0.02713994301080078</v>
       </c>
       <c r="T9">
-        <v>0.05626986083941506</v>
+        <v>0.02713994301080078</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>6.14883</v>
+      </c>
+      <c r="H10">
+        <v>18.44649</v>
+      </c>
+      <c r="I10">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="J10">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.998339000000001</v>
+      </c>
+      <c r="N10">
+        <v>23.995017</v>
+      </c>
+      <c r="O10">
+        <v>0.6786582098098016</v>
+      </c>
+      <c r="P10">
+        <v>0.6786582098098015</v>
+      </c>
+      <c r="Q10">
+        <v>49.18042679337</v>
+      </c>
+      <c r="R10">
+        <v>442.6238411403301</v>
+      </c>
+      <c r="S10">
+        <v>0.3116928039118516</v>
+      </c>
+      <c r="T10">
+        <v>0.3116928039118515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>6.14883</v>
+      </c>
+      <c r="H11">
+        <v>18.44649</v>
+      </c>
+      <c r="I11">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="J11">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.676334666666667</v>
+      </c>
+      <c r="N11">
+        <v>8.029004</v>
+      </c>
+      <c r="O11">
+        <v>0.2270867105947763</v>
+      </c>
+      <c r="P11">
+        <v>0.2270867105947762</v>
+      </c>
+      <c r="Q11">
+        <v>16.45632688844</v>
+      </c>
+      <c r="R11">
+        <v>148.10694199596</v>
+      </c>
+      <c r="S11">
+        <v>0.1042959365012941</v>
+      </c>
+      <c r="T11">
+        <v>0.1042959365012941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>6.14883</v>
+      </c>
+      <c r="H12">
+        <v>18.44649</v>
+      </c>
+      <c r="I12">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="J12">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06654933333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.199648</v>
+      </c>
+      <c r="O12">
+        <v>0.005646703824886112</v>
+      </c>
+      <c r="P12">
+        <v>0.00564670382488611</v>
+      </c>
+      <c r="Q12">
+        <v>0.4092005372800001</v>
+      </c>
+      <c r="R12">
+        <v>3.68280483552</v>
+      </c>
+      <c r="S12">
+        <v>0.002593406994268575</v>
+      </c>
+      <c r="T12">
+        <v>0.002593406994268574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>6.14883</v>
+      </c>
+      <c r="H13">
+        <v>18.44649</v>
+      </c>
+      <c r="I13">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="J13">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.044295666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.132887</v>
+      </c>
+      <c r="O13">
+        <v>0.08860837577053601</v>
+      </c>
+      <c r="P13">
+        <v>0.088608375770536</v>
+      </c>
+      <c r="Q13">
+        <v>6.421196524069999</v>
+      </c>
+      <c r="R13">
+        <v>57.79076871663</v>
+      </c>
+      <c r="S13">
+        <v>0.04069588003913432</v>
+      </c>
+      <c r="T13">
+        <v>0.04069588003913432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.893721</v>
+      </c>
+      <c r="H14">
+        <v>5.681163</v>
+      </c>
+      <c r="I14">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="J14">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.998339000000001</v>
+      </c>
+      <c r="N14">
+        <v>23.995017</v>
+      </c>
+      <c r="O14">
+        <v>0.6786582098098016</v>
+      </c>
+      <c r="P14">
+        <v>0.6786582098098015</v>
+      </c>
+      <c r="Q14">
+        <v>15.146622529419</v>
+      </c>
+      <c r="R14">
+        <v>136.319602764771</v>
+      </c>
+      <c r="S14">
+        <v>0.09599536957709928</v>
+      </c>
+      <c r="T14">
+        <v>0.09599536957709927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.893721</v>
+      </c>
+      <c r="H15">
+        <v>5.681163</v>
+      </c>
+      <c r="I15">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="J15">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.676334666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.029004</v>
+      </c>
+      <c r="O15">
+        <v>0.2270867105947763</v>
+      </c>
+      <c r="P15">
+        <v>0.2270867105947762</v>
+      </c>
+      <c r="Q15">
+        <v>5.068231161294667</v>
+      </c>
+      <c r="R15">
+        <v>45.614080451652</v>
+      </c>
+      <c r="S15">
+        <v>0.03212113608071245</v>
+      </c>
+      <c r="T15">
+        <v>0.03212113608071244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.72257373055118</v>
-      </c>
-      <c r="H10">
-        <v>1.72257373055118</v>
-      </c>
-      <c r="I10">
-        <v>0.252057807517695</v>
-      </c>
-      <c r="J10">
-        <v>0.252057807517695</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.878610738646454</v>
-      </c>
-      <c r="N10">
-        <v>0.878610738646454</v>
-      </c>
-      <c r="O10">
-        <v>0.0810319993184509</v>
-      </c>
-      <c r="P10">
-        <v>0.0810319993184509</v>
-      </c>
-      <c r="Q10">
-        <v>1.51347177777255</v>
-      </c>
-      <c r="R10">
-        <v>1.51347177777255</v>
-      </c>
-      <c r="S10">
-        <v>0.02042474808698409</v>
-      </c>
-      <c r="T10">
-        <v>0.02042474808698409</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.893721</v>
+      </c>
+      <c r="H16">
+        <v>5.681163</v>
+      </c>
+      <c r="I16">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="J16">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06654933333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.199648</v>
+      </c>
+      <c r="O16">
+        <v>0.005646703824886112</v>
+      </c>
+      <c r="P16">
+        <v>0.00564670382488611</v>
+      </c>
+      <c r="Q16">
+        <v>0.1260258700693333</v>
+      </c>
+      <c r="R16">
+        <v>1.134232830624</v>
+      </c>
+      <c r="S16">
+        <v>0.000798719315153172</v>
+      </c>
+      <c r="T16">
+        <v>0.0007987193151531717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.893721</v>
+      </c>
+      <c r="H17">
+        <v>5.681163</v>
+      </c>
+      <c r="I17">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="J17">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.044295666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.132887</v>
+      </c>
+      <c r="O17">
+        <v>0.08860837577053601</v>
+      </c>
+      <c r="P17">
+        <v>0.088608375770536</v>
+      </c>
+      <c r="Q17">
+        <v>1.977604634175666</v>
+      </c>
+      <c r="R17">
+        <v>17.798441707581</v>
+      </c>
+      <c r="S17">
+        <v>0.01253354583613297</v>
+      </c>
+      <c r="T17">
+        <v>0.01253354583613297</v>
       </c>
     </row>
   </sheetData>
